--- a/tel/調度資料.xlsx
+++ b/tel/調度資料.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\資料查詢\w513\w513\tel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8892D97-C610-4CFD-AB98-4B7178F48299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A86CE4-ED42-43BB-B484-684A419F79B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="0" windowWidth="8865" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="-108" windowWidth="22368" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="撥打測試" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1123">
   <si>
     <t>分機號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4058,7 +4055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5543,22 +5540,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="5"/>
+    <col min="1" max="1" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A2" s="30" t="s">
         <v>1066</v>
       </c>
@@ -5609,7 +5606,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A3" s="30" t="s">
         <v>1065</v>
       </c>
@@ -5633,7 +5630,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A4" s="30" t="s">
         <v>1064</v>
       </c>
@@ -5657,7 +5654,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A5" s="30" t="s">
         <v>1063</v>
       </c>
@@ -5678,7 +5675,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A6" s="30" t="s">
         <v>1062</v>
       </c>
@@ -5705,7 +5702,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.4">
       <c r="A7" s="16">
         <v>300</v>
       </c>
@@ -5733,7 +5730,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="4" customFormat="1">
       <c r="A8" s="16">
         <v>301</v>
       </c>
@@ -5759,7 +5756,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1">
       <c r="A9" s="16">
         <v>302</v>
       </c>
@@ -5777,7 +5774,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" s="16">
         <v>303</v>
       </c>
@@ -5803,7 +5800,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" s="16">
         <v>304</v>
       </c>
@@ -5829,7 +5826,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="4" customFormat="1">
       <c r="A12" s="16">
         <v>305</v>
       </c>
@@ -5853,7 +5850,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="4" customFormat="1">
       <c r="A13" s="16">
         <v>306</v>
       </c>
@@ -5879,7 +5876,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="4" customFormat="1">
       <c r="A14" s="16">
         <v>307</v>
       </c>
@@ -5905,7 +5902,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="4" customFormat="1">
       <c r="A15" s="16">
         <v>308</v>
       </c>
@@ -5923,7 +5920,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="4" customFormat="1">
       <c r="A16" s="16">
         <v>309</v>
       </c>
@@ -5951,7 +5948,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="4" customFormat="1">
       <c r="A17" s="16">
         <v>310</v>
       </c>
@@ -5979,7 +5976,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="4" customFormat="1">
       <c r="A18" s="16">
         <v>311</v>
       </c>
@@ -6005,7 +6002,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="32.4">
       <c r="A19" s="16">
         <v>312</v>
       </c>
@@ -6035,7 +6032,7 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="4" customFormat="1">
       <c r="A20" s="16">
         <v>313</v>
       </c>
@@ -6063,7 +6060,7 @@
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="4" customFormat="1">
       <c r="A21" s="16">
         <v>314</v>
       </c>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="A22" s="16">
         <v>315</v>
       </c>
@@ -6119,7 +6116,7 @@
       </c>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="4" customFormat="1">
       <c r="A23" s="16">
         <v>316</v>
       </c>
@@ -6147,7 +6144,7 @@
       </c>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="4" customFormat="1">
       <c r="A24" s="16">
         <v>317</v>
       </c>
@@ -6177,7 +6174,7 @@
       </c>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="4" customFormat="1">
       <c r="A25" s="16">
         <v>318</v>
       </c>
@@ -6205,7 +6202,7 @@
       </c>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="4" customFormat="1">
       <c r="A26" s="16">
         <v>319</v>
       </c>
@@ -6233,7 +6230,7 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="4" customFormat="1">
       <c r="A27" s="16">
         <v>320</v>
       </c>
@@ -6261,7 +6258,7 @@
       </c>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="4" customFormat="1">
       <c r="A28" s="16">
         <v>321</v>
       </c>
@@ -6289,7 +6286,7 @@
       </c>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="4" customFormat="1">
       <c r="A29" s="16">
         <v>322</v>
       </c>
@@ -6319,7 +6316,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" s="16">
         <v>323</v>
       </c>
@@ -6349,7 +6346,7 @@
       </c>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" s="16">
         <v>324</v>
       </c>
@@ -6377,7 +6374,7 @@
       </c>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="4" customFormat="1">
       <c r="A32" s="16">
         <v>325</v>
       </c>
@@ -6395,7 +6392,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="4" customFormat="1">
       <c r="A33" s="16">
         <v>326</v>
       </c>
@@ -6425,7 +6422,7 @@
       </c>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="4" customFormat="1">
       <c r="A34" s="16">
         <v>327</v>
       </c>
@@ -6443,7 +6440,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="4" customFormat="1">
       <c r="A35" s="16">
         <v>328</v>
       </c>
@@ -6461,7 +6458,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="4" customFormat="1">
       <c r="A36" s="16">
         <v>329</v>
       </c>
@@ -6487,7 +6484,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="4" customFormat="1">
       <c r="A37" s="16">
         <v>330</v>
       </c>
@@ -6515,7 +6512,7 @@
       </c>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="4" customFormat="1">
       <c r="A38" s="16">
         <v>331</v>
       </c>
@@ -6543,7 +6540,7 @@
       </c>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="4" customFormat="1">
       <c r="A39" s="16">
         <v>332</v>
       </c>
@@ -6569,7 +6566,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="4" customFormat="1">
       <c r="A40" s="16">
         <v>333</v>
       </c>
@@ -6595,7 +6592,7 @@
       </c>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="4" customFormat="1">
       <c r="A41" s="16">
         <v>334</v>
       </c>
@@ -6605,23 +6602,15 @@
       <c r="C41" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="16">
         <v>335</v>
       </c>
@@ -6649,7 +6638,7 @@
       </c>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="16">
         <v>336</v>
       </c>
@@ -6675,7 +6664,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="16">
         <v>337</v>
       </c>
@@ -6703,7 +6692,7 @@
       </c>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="16">
         <v>338</v>
       </c>
@@ -6731,7 +6720,7 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="16">
         <v>339</v>
       </c>
@@ -6759,7 +6748,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="16">
         <v>340</v>
       </c>
@@ -6777,7 +6766,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="16">
         <v>341</v>
       </c>
@@ -6795,7 +6784,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="16">
         <v>342</v>
       </c>
@@ -6813,7 +6802,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="16">
         <v>343</v>
       </c>
@@ -6831,7 +6820,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="16">
         <v>344</v>
       </c>
@@ -6849,7 +6838,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="16">
         <v>345</v>
       </c>
@@ -6867,7 +6856,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="16">
         <v>346</v>
       </c>
@@ -6885,7 +6874,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="16">
         <v>347</v>
       </c>
@@ -6903,7 +6892,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="16">
         <v>348</v>
       </c>
@@ -6931,7 +6920,7 @@
       </c>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="16">
         <v>349</v>
       </c>
@@ -6959,7 +6948,7 @@
       </c>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="16">
         <v>350</v>
       </c>
@@ -6985,7 +6974,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="16">
         <v>351</v>
       </c>
@@ -7003,7 +6992,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="32.4">
       <c r="A59" s="16">
         <v>352</v>
       </c>
@@ -7029,7 +7018,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="16">
         <v>353</v>
       </c>
@@ -7047,7 +7036,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="29">
         <v>354</v>
       </c>
@@ -7067,7 +7056,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="16">
         <v>355</v>
       </c>
@@ -7085,7 +7074,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="16">
         <v>356</v>
       </c>
@@ -7113,7 +7102,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="16">
         <v>357</v>
       </c>
@@ -7141,7 +7130,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="16">
         <v>358</v>
       </c>
@@ -7169,7 +7158,7 @@
       </c>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="16">
         <v>359</v>
       </c>
@@ -7197,7 +7186,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="16">
         <v>360</v>
       </c>
@@ -7215,7 +7204,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="16">
         <v>361</v>
       </c>
@@ -7233,7 +7222,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="16">
         <v>362</v>
       </c>
@@ -7251,7 +7240,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="16">
         <v>363</v>
       </c>
@@ -7279,7 +7268,7 @@
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="16">
         <v>364</v>
       </c>
@@ -7297,7 +7286,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="16">
         <v>365</v>
       </c>
@@ -7315,7 +7304,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="16">
         <v>366</v>
       </c>
@@ -7343,7 +7332,7 @@
       </c>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="16">
         <v>367</v>
       </c>
@@ -7371,7 +7360,7 @@
       </c>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="16">
         <v>368</v>
       </c>
@@ -7401,7 +7390,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="16">
         <v>369</v>
       </c>
@@ -7429,7 +7418,7 @@
       </c>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="16">
         <v>370</v>
       </c>
@@ -7447,7 +7436,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="16">
         <v>371</v>
       </c>
@@ -7473,7 +7462,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="16">
         <v>372</v>
       </c>
@@ -7503,7 +7492,7 @@
       </c>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="16">
         <v>373</v>
       </c>
@@ -7533,7 +7522,7 @@
       </c>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="16">
         <v>374</v>
       </c>
@@ -7563,7 +7552,7 @@
       </c>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="16">
         <v>375</v>
       </c>
@@ -7591,7 +7580,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="16">
         <v>376</v>
       </c>
@@ -7619,7 +7608,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="16">
         <v>377</v>
       </c>
@@ -7647,7 +7636,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="16">
         <v>378</v>
       </c>
@@ -7665,7 +7654,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="16">
         <v>379</v>
       </c>
@@ -7689,7 +7678,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="16">
         <v>380</v>
       </c>
@@ -7715,7 +7704,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="16">
         <v>381</v>
       </c>
@@ -7741,7 +7730,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="16">
         <v>382</v>
       </c>
@@ -7769,7 +7758,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="16">
         <v>383</v>
       </c>
@@ -7795,7 +7784,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="16">
         <v>384</v>
       </c>
@@ -7823,7 +7812,7 @@
       </c>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="16">
         <v>385</v>
       </c>
@@ -7849,7 +7838,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="16">
         <v>386</v>
       </c>
@@ -7867,7 +7856,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="16">
         <v>387</v>
       </c>
@@ -7893,7 +7882,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="16">
         <v>388</v>
       </c>
@@ -7921,7 +7910,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="16">
         <v>389</v>
       </c>
@@ -7939,7 +7928,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="16">
         <v>390</v>
       </c>
@@ -7967,7 +7956,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="16">
         <v>391</v>
       </c>
@@ -7995,7 +7984,7 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="16">
         <v>392</v>
       </c>
@@ -8023,7 +8012,7 @@
       </c>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="16">
         <v>393</v>
       </c>
@@ -8051,7 +8040,7 @@
       </c>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="16">
         <v>394</v>
       </c>
@@ -8077,7 +8066,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="23"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="16">
         <v>395</v>
       </c>
@@ -8097,7 +8086,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="16">
         <v>396</v>
       </c>
@@ -8123,7 +8112,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="16">
         <v>397</v>
       </c>
@@ -8141,7 +8130,7 @@
       <c r="I104" s="16"/>
       <c r="J104" s="23"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="16">
         <v>398</v>
       </c>
@@ -8167,7 +8156,7 @@
       <c r="I105" s="16"/>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="32.4">
       <c r="A106" s="16">
         <v>399</v>
       </c>
@@ -8195,7 +8184,7 @@
       </c>
       <c r="J106" s="23"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="16">
         <v>400</v>
       </c>
@@ -8221,7 +8210,7 @@
       <c r="I107" s="16"/>
       <c r="J107" s="23"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="16">
         <v>401</v>
       </c>
@@ -8247,7 +8236,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="23"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="16">
         <v>402</v>
       </c>
@@ -8273,7 +8262,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="23"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="16">
         <v>403</v>
       </c>
@@ -8299,7 +8288,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="23"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="16">
         <v>404</v>
       </c>
@@ -8317,7 +8306,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="23"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="16">
         <v>405</v>
       </c>
@@ -8335,7 +8324,7 @@
       <c r="I112" s="16"/>
       <c r="J112" s="23"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="16">
         <v>406</v>
       </c>
@@ -8361,7 +8350,7 @@
       <c r="I113" s="16"/>
       <c r="J113" s="23"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="16">
         <v>407</v>
       </c>
@@ -8389,7 +8378,7 @@
       </c>
       <c r="J114" s="23"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="16">
         <v>408</v>
       </c>
@@ -8415,7 +8404,7 @@
       <c r="I115" s="16"/>
       <c r="J115" s="23"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="16">
         <v>409</v>
       </c>
@@ -8441,7 +8430,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="23"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="16">
         <v>410</v>
       </c>
@@ -8467,7 +8456,7 @@
       <c r="I117" s="16"/>
       <c r="J117" s="23"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="16">
         <v>411</v>
       </c>
@@ -8493,7 +8482,7 @@
       <c r="I118" s="16"/>
       <c r="J118" s="23"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="16">
         <v>412</v>
       </c>
@@ -8519,7 +8508,7 @@
       <c r="I119" s="16"/>
       <c r="J119" s="23"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="16">
         <v>413</v>
       </c>
@@ -8545,7 +8534,7 @@
       <c r="I120" s="16"/>
       <c r="J120" s="23"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="16">
         <v>414</v>
       </c>
@@ -8571,7 +8560,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="23"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="16">
         <v>415</v>
       </c>
@@ -8597,7 +8586,7 @@
       <c r="I122" s="16"/>
       <c r="J122" s="23"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="16">
         <v>416</v>
       </c>
@@ -8623,7 +8612,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="23"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="16">
         <v>417</v>
       </c>
@@ -8649,7 +8638,7 @@
       <c r="I124" s="16"/>
       <c r="J124" s="23"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="16">
         <v>418</v>
       </c>
@@ -8677,7 +8666,7 @@
       </c>
       <c r="J125" s="23"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="16">
         <v>419</v>
       </c>
@@ -8703,7 +8692,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="23"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="16">
         <v>420</v>
       </c>
@@ -8729,7 +8718,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="23"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="16">
         <v>421</v>
       </c>
@@ -8755,7 +8744,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="23"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="16">
         <v>422</v>
       </c>
@@ -8783,7 +8772,7 @@
       </c>
       <c r="J129" s="23"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="16">
         <v>423</v>
       </c>
@@ -8809,7 +8798,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="23"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="16">
         <v>424</v>
       </c>
@@ -8837,7 +8826,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="23"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="16">
         <v>425</v>
       </c>
@@ -8865,7 +8854,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="23"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="16">
         <v>426</v>
       </c>
@@ -8893,7 +8882,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="23"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="16">
         <v>427</v>
       </c>
@@ -8919,7 +8908,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="23"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="16">
         <v>428</v>
       </c>
@@ -8945,7 +8934,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="23"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="16">
         <v>429</v>
       </c>
@@ -8971,7 +8960,7 @@
       <c r="I136" s="16"/>
       <c r="J136" s="23"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="16">
         <v>430</v>
       </c>
@@ -8997,7 +8986,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="23"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="16">
         <v>431</v>
       </c>
@@ -9023,7 +9012,7 @@
       <c r="I138" s="16"/>
       <c r="J138" s="23"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="16">
         <v>432</v>
       </c>
@@ -9051,7 +9040,7 @@
       </c>
       <c r="J139" s="23"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="16">
         <v>433</v>
       </c>
@@ -9077,7 +9066,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="23"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="16">
         <v>434</v>
       </c>
@@ -9105,7 +9094,7 @@
       </c>
       <c r="J141" s="23"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="16">
         <v>435</v>
       </c>
@@ -9131,7 +9120,7 @@
       <c r="I142" s="16"/>
       <c r="J142" s="23"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="16">
         <v>436</v>
       </c>
@@ -9159,7 +9148,7 @@
       <c r="I143" s="16"/>
       <c r="J143" s="23"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="16">
         <v>437</v>
       </c>
@@ -9187,7 +9176,7 @@
       </c>
       <c r="J144" s="23"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="16">
         <v>438</v>
       </c>
@@ -9205,7 +9194,7 @@
       <c r="I145" s="16"/>
       <c r="J145" s="23"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="16">
         <v>439</v>
       </c>
@@ -9231,7 +9220,7 @@
       <c r="I146" s="16"/>
       <c r="J146" s="23"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="16">
         <v>440</v>
       </c>
@@ -9257,7 +9246,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="23"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="16">
         <v>441</v>
       </c>
@@ -9283,7 +9272,7 @@
       <c r="I148" s="16"/>
       <c r="J148" s="23"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="16">
         <v>442</v>
       </c>
@@ -9311,7 +9300,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="23"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="16">
         <v>443</v>
       </c>
@@ -9341,7 +9330,7 @@
       </c>
       <c r="J150" s="23"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="16">
         <v>444</v>
       </c>
@@ -9359,7 +9348,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="23"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="16">
         <v>445</v>
       </c>
@@ -9387,7 +9376,7 @@
       <c r="I152" s="16"/>
       <c r="J152" s="23"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="16">
         <v>446</v>
       </c>
@@ -9415,7 +9404,7 @@
       </c>
       <c r="J153" s="23"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="16">
         <v>447</v>
       </c>
@@ -9443,7 +9432,7 @@
       </c>
       <c r="J154" s="23"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="16">
         <v>448</v>
       </c>
@@ -9469,7 +9458,7 @@
       <c r="I155" s="16"/>
       <c r="J155" s="23"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="16">
         <v>449</v>
       </c>
@@ -9499,7 +9488,7 @@
       </c>
       <c r="J156" s="23"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="16">
         <v>450</v>
       </c>
@@ -9527,7 +9516,7 @@
       </c>
       <c r="J157" s="23"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="16">
         <v>451</v>
       </c>
@@ -9553,7 +9542,7 @@
       <c r="I158" s="16"/>
       <c r="J158" s="23"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="16">
         <v>452</v>
       </c>
@@ -9579,7 +9568,7 @@
       <c r="I159" s="16"/>
       <c r="J159" s="23"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="16">
         <v>453</v>
       </c>
@@ -9605,7 +9594,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="23"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="16">
         <v>454</v>
       </c>
@@ -9623,7 +9612,7 @@
       <c r="I161" s="16"/>
       <c r="J161" s="23"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="16">
         <v>455</v>
       </c>
@@ -9645,7 +9634,7 @@
       <c r="I162" s="16"/>
       <c r="J162" s="23"/>
     </row>
-    <row r="163" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="32.4">
       <c r="A163" s="16">
         <v>456</v>
       </c>
@@ -9671,7 +9660,7 @@
       <c r="I163" s="16"/>
       <c r="J163" s="23"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="16">
         <v>457</v>
       </c>
@@ -9699,7 +9688,7 @@
       </c>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="16">
         <v>458</v>
       </c>
@@ -9725,7 +9714,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="23"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="16">
         <v>459</v>
       </c>
@@ -9753,7 +9742,7 @@
       </c>
       <c r="J166" s="23"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="16">
         <v>460</v>
       </c>
@@ -9781,7 +9770,7 @@
       </c>
       <c r="J167" s="23"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="16">
         <v>461</v>
       </c>
@@ -9809,7 +9798,7 @@
       </c>
       <c r="J168" s="23"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="16">
         <v>462</v>
       </c>
@@ -9835,7 +9824,7 @@
       <c r="I169" s="16"/>
       <c r="J169" s="23"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="16">
         <v>463</v>
       </c>
@@ -9863,7 +9852,7 @@
       </c>
       <c r="J170" s="23"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="16">
         <v>464</v>
       </c>
@@ -9889,7 +9878,7 @@
       <c r="I171" s="16"/>
       <c r="J171" s="23"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="16">
         <v>465</v>
       </c>
@@ -9915,7 +9904,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="23"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="16">
         <v>466</v>
       </c>
@@ -9943,7 +9932,7 @@
       </c>
       <c r="J173" s="23"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="16">
         <v>467</v>
       </c>
@@ -9971,7 +9960,7 @@
       </c>
       <c r="J174" s="23"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="16">
         <v>468</v>
       </c>
@@ -9989,7 +9978,7 @@
       <c r="I175" s="16"/>
       <c r="J175" s="23"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="16">
         <v>469</v>
       </c>
@@ -10007,7 +9996,7 @@
       <c r="I176" s="16"/>
       <c r="J176" s="23"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="16">
         <v>470</v>
       </c>
@@ -10025,7 +10014,7 @@
       <c r="I177" s="16"/>
       <c r="J177" s="23"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="16">
         <v>471</v>
       </c>
@@ -10043,7 +10032,7 @@
       <c r="I178" s="16"/>
       <c r="J178" s="23"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="16">
         <v>472</v>
       </c>
@@ -10061,7 +10050,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="23"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="16">
         <v>473</v>
       </c>
@@ -10079,7 +10068,7 @@
       <c r="I180" s="16"/>
       <c r="J180" s="23"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="16">
         <v>474</v>
       </c>
@@ -10097,7 +10086,7 @@
       <c r="I181" s="16"/>
       <c r="J181" s="23"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="16">
         <v>475</v>
       </c>
@@ -10115,7 +10104,7 @@
       <c r="I182" s="16"/>
       <c r="J182" s="23"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="16">
         <v>476</v>
       </c>
@@ -10133,7 +10122,7 @@
       <c r="I183" s="16"/>
       <c r="J183" s="23"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="16">
         <v>477</v>
       </c>
@@ -10151,7 +10140,7 @@
       <c r="I184" s="16"/>
       <c r="J184" s="23"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="16">
         <v>478</v>
       </c>
@@ -10169,7 +10158,7 @@
       <c r="I185" s="16"/>
       <c r="J185" s="23"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="16">
         <v>479</v>
       </c>
@@ -10187,7 +10176,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="23"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="16">
         <v>480</v>
       </c>
@@ -10205,7 +10194,7 @@
       <c r="I187" s="16"/>
       <c r="J187" s="23"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="16">
         <v>481</v>
       </c>
@@ -10223,7 +10212,7 @@
       <c r="I188" s="16"/>
       <c r="J188" s="23"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="16">
         <v>482</v>
       </c>
@@ -10241,7 +10230,7 @@
       <c r="I189" s="16"/>
       <c r="J189" s="23"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="16">
         <v>483</v>
       </c>
@@ -10259,7 +10248,7 @@
       <c r="I190" s="16"/>
       <c r="J190" s="23"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="16">
         <v>484</v>
       </c>
@@ -10277,7 +10266,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="23"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="16">
         <v>485</v>
       </c>
@@ -10295,7 +10284,7 @@
       <c r="I192" s="16"/>
       <c r="J192" s="23"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="16">
         <v>486</v>
       </c>
@@ -10313,7 +10302,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="23"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="16">
         <v>487</v>
       </c>
@@ -10331,7 +10320,7 @@
       <c r="I194" s="16"/>
       <c r="J194" s="23"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="16">
         <v>488</v>
       </c>
@@ -10349,7 +10338,7 @@
       <c r="I195" s="16"/>
       <c r="J195" s="23"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="16">
         <v>489</v>
       </c>
@@ -10367,7 +10356,7 @@
       <c r="I196" s="16"/>
       <c r="J196" s="23"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="16">
         <v>490</v>
       </c>
@@ -10385,7 +10374,7 @@
       <c r="I197" s="16"/>
       <c r="J197" s="23"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="16">
         <v>491</v>
       </c>
@@ -10403,7 +10392,7 @@
       <c r="I198" s="16"/>
       <c r="J198" s="23"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="16">
         <v>492</v>
       </c>
@@ -10421,7 +10410,7 @@
       <c r="I199" s="16"/>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="16">
         <v>493</v>
       </c>
@@ -10439,7 +10428,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="16">
         <v>494</v>
       </c>
@@ -10457,7 +10446,7 @@
       <c r="I201" s="16"/>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="16">
         <v>495</v>
       </c>
@@ -10475,7 +10464,7 @@
       <c r="I202" s="16"/>
       <c r="J202" s="23"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="16">
         <v>496</v>
       </c>
@@ -10493,7 +10482,7 @@
       <c r="I203" s="16"/>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="16">
         <v>497</v>
       </c>
@@ -10513,7 +10502,7 @@
       <c r="I204" s="32"/>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="32.4">
       <c r="A205" s="16">
         <v>498</v>
       </c>
@@ -10539,7 +10528,7 @@
       <c r="I205" s="16"/>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="32.4">
       <c r="A206" s="16">
         <v>499</v>
       </c>
@@ -10565,7 +10554,7 @@
       <c r="I206" s="16"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="32.4">
       <c r="A207" s="16">
         <v>500</v>
       </c>
@@ -10591,7 +10580,7 @@
       <c r="I207" s="16"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="32.4">
       <c r="A208" s="16">
         <v>501</v>
       </c>
@@ -10617,7 +10606,7 @@
       <c r="I208" s="16"/>
       <c r="J208" s="23"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="16">
         <v>502</v>
       </c>
@@ -10643,7 +10632,7 @@
       <c r="I209" s="16"/>
       <c r="J209" s="23"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="16">
         <v>503</v>
       </c>
@@ -10669,7 +10658,7 @@
       <c r="I210" s="16"/>
       <c r="J210" s="23"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="16">
         <v>504</v>
       </c>
@@ -10695,7 +10684,7 @@
       <c r="I211" s="16"/>
       <c r="J211" s="23"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="16">
         <v>505</v>
       </c>
@@ -10721,7 +10710,7 @@
       <c r="I212" s="16"/>
       <c r="J212" s="23"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="16">
         <v>506</v>
       </c>
@@ -10747,7 +10736,7 @@
       <c r="I213" s="16"/>
       <c r="J213" s="23"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="16">
         <v>507</v>
       </c>
@@ -10773,7 +10762,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="23"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="16">
         <v>508</v>
       </c>
@@ -10799,7 +10788,7 @@
       <c r="I215" s="16"/>
       <c r="J215" s="23"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="16">
         <v>509</v>
       </c>
@@ -10825,7 +10814,7 @@
       <c r="I216" s="16"/>
       <c r="J216" s="23"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="16">
         <v>510</v>
       </c>
@@ -10851,7 +10840,7 @@
       <c r="I217" s="16"/>
       <c r="J217" s="23"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="16">
         <v>511</v>
       </c>
@@ -10877,7 +10866,7 @@
       <c r="I218" s="16"/>
       <c r="J218" s="23"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="16">
         <v>512</v>
       </c>
@@ -10903,7 +10892,7 @@
       <c r="I219" s="16"/>
       <c r="J219" s="23"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="16">
         <v>513</v>
       </c>
@@ -10929,7 +10918,7 @@
       <c r="I220" s="16"/>
       <c r="J220" s="23"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="16">
         <v>514</v>
       </c>
@@ -10955,7 +10944,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="23"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="16">
         <v>515</v>
       </c>
@@ -10981,7 +10970,7 @@
       <c r="I222" s="16"/>
       <c r="J222" s="23"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="16">
         <v>516</v>
       </c>
@@ -11007,7 +10996,7 @@
       <c r="I223" s="16"/>
       <c r="J223" s="23"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="16">
         <v>517</v>
       </c>
@@ -11033,7 +11022,7 @@
       <c r="I224" s="16"/>
       <c r="J224" s="23"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="16">
         <v>518</v>
       </c>
@@ -11059,7 +11048,7 @@
       <c r="I225" s="16"/>
       <c r="J225" s="23"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="16">
         <v>519</v>
       </c>
@@ -11085,7 +11074,7 @@
       <c r="I226" s="16"/>
       <c r="J226" s="23"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="16">
         <v>520</v>
       </c>
@@ -11103,7 +11092,7 @@
       <c r="I227" s="16"/>
       <c r="J227" s="23"/>
     </row>
-    <row r="228" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="32.4">
       <c r="A228" s="16">
         <v>521</v>
       </c>
@@ -11129,7 +11118,7 @@
       <c r="I228" s="16"/>
       <c r="J228" s="23"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="16">
         <v>522</v>
       </c>
@@ -11155,7 +11144,7 @@
       <c r="I229" s="16"/>
       <c r="J229" s="23"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="16">
         <v>523</v>
       </c>
@@ -11181,7 +11170,7 @@
       <c r="I230" s="16"/>
       <c r="J230" s="23"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="16">
         <v>524</v>
       </c>
@@ -11207,7 +11196,7 @@
       <c r="I231" s="16"/>
       <c r="J231" s="23"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="16">
         <v>525</v>
       </c>
@@ -11225,7 +11214,7 @@
       <c r="I232" s="16"/>
       <c r="J232" s="23"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="16">
         <v>526</v>
       </c>
@@ -11243,7 +11232,7 @@
       <c r="I233" s="16"/>
       <c r="J233" s="23"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="16">
         <v>527</v>
       </c>
@@ -11261,7 +11250,7 @@
       <c r="I234" s="16"/>
       <c r="J234" s="23"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="16">
         <v>528</v>
       </c>
@@ -11279,7 +11268,7 @@
       <c r="I235" s="16"/>
       <c r="J235" s="23"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="16">
         <v>529</v>
       </c>
@@ -11297,7 +11286,7 @@
       <c r="I236" s="16"/>
       <c r="J236" s="23"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="16">
         <v>530</v>
       </c>
@@ -11315,7 +11304,7 @@
       <c r="I237" s="16"/>
       <c r="J237" s="23"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="16">
         <v>531</v>
       </c>
@@ -11333,7 +11322,7 @@
       <c r="I238" s="16"/>
       <c r="J238" s="23"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="16">
         <v>532</v>
       </c>
@@ -11351,7 +11340,7 @@
       <c r="I239" s="16"/>
       <c r="J239" s="23"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="16">
         <v>533</v>
       </c>
@@ -11369,7 +11358,7 @@
       <c r="I240" s="16"/>
       <c r="J240" s="23"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="16">
         <v>534</v>
       </c>
@@ -11387,7 +11376,7 @@
       <c r="I241" s="16"/>
       <c r="J241" s="23"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="16">
         <v>535</v>
       </c>
@@ -11405,7 +11394,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="23"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="16">
         <v>536</v>
       </c>
@@ -11423,7 +11412,7 @@
       <c r="I243" s="16"/>
       <c r="J243" s="23"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="16">
         <v>537</v>
       </c>
@@ -11441,7 +11430,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="23"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="16">
         <v>538</v>
       </c>
@@ -11459,7 +11448,7 @@
       <c r="I245" s="16"/>
       <c r="J245" s="23"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="16">
         <v>539</v>
       </c>
@@ -11477,7 +11466,7 @@
       <c r="I246" s="16"/>
       <c r="J246" s="23"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="16">
         <v>540</v>
       </c>
@@ -11495,7 +11484,7 @@
       <c r="I247" s="16"/>
       <c r="J247" s="23"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="16">
         <v>541</v>
       </c>
@@ -11513,7 +11502,7 @@
       <c r="I248" s="16"/>
       <c r="J248" s="23"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="16">
         <v>542</v>
       </c>
@@ -11531,7 +11520,7 @@
       <c r="I249" s="16"/>
       <c r="J249" s="23"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="16">
         <v>543</v>
       </c>
@@ -11549,7 +11538,7 @@
       <c r="I250" s="16"/>
       <c r="J250" s="23"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="16">
         <v>544</v>
       </c>
@@ -11567,7 +11556,7 @@
       <c r="I251" s="16"/>
       <c r="J251" s="23"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="16">
         <v>545</v>
       </c>
@@ -11585,7 +11574,7 @@
       <c r="I252" s="16"/>
       <c r="J252" s="23"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="16">
         <v>546</v>
       </c>
@@ -11603,7 +11592,7 @@
       <c r="I253" s="16"/>
       <c r="J253" s="23"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="16">
         <v>547</v>
       </c>
@@ -11621,7 +11610,7 @@
       <c r="I254" s="16"/>
       <c r="J254" s="23"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="16">
         <v>548</v>
       </c>
@@ -11639,7 +11628,7 @@
       <c r="I255" s="16"/>
       <c r="J255" s="23"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="16">
         <v>549</v>
       </c>
@@ -11657,7 +11646,7 @@
       <c r="I256" s="16"/>
       <c r="J256" s="23"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="16">
         <v>550</v>
       </c>
@@ -11675,7 +11664,7 @@
       <c r="I257" s="16"/>
       <c r="J257" s="23"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="16">
         <v>551</v>
       </c>
@@ -11695,7 +11684,7 @@
       <c r="I258" s="32"/>
       <c r="J258" s="23"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="16">
         <v>552</v>
       </c>
@@ -11715,7 +11704,7 @@
       <c r="I259" s="32"/>
       <c r="J259" s="23"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="16">
         <v>553</v>
       </c>
@@ -11735,7 +11724,7 @@
       <c r="I260" s="32"/>
       <c r="J260" s="23"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="16">
         <v>554</v>
       </c>
@@ -11753,7 +11742,7 @@
       <c r="I261" s="16"/>
       <c r="J261" s="23"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="16">
         <v>555</v>
       </c>
@@ -11771,7 +11760,7 @@
       <c r="I262" s="16"/>
       <c r="J262" s="23"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="16">
         <v>556</v>
       </c>
@@ -11789,7 +11778,7 @@
       <c r="I263" s="16"/>
       <c r="J263" s="23"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="16">
         <v>557</v>
       </c>
@@ -11807,7 +11796,7 @@
       <c r="I264" s="16"/>
       <c r="J264" s="23"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="16">
         <v>558</v>
       </c>
@@ -11825,7 +11814,7 @@
       <c r="I265" s="16"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="16">
         <v>559</v>
       </c>
@@ -11843,7 +11832,7 @@
       <c r="I266" s="16"/>
       <c r="J266" s="23"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="16">
         <v>560</v>
       </c>
@@ -11861,7 +11850,7 @@
       <c r="I267" s="16"/>
       <c r="J267" s="23"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="16">
         <v>561</v>
       </c>
@@ -11879,7 +11868,7 @@
       <c r="I268" s="16"/>
       <c r="J268" s="23"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="16">
         <v>562</v>
       </c>
@@ -11897,7 +11886,7 @@
       <c r="I269" s="16"/>
       <c r="J269" s="23"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="16">
         <v>563</v>
       </c>
@@ -11915,7 +11904,7 @@
       <c r="I270" s="16"/>
       <c r="J270" s="23"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="16">
         <v>564</v>
       </c>
@@ -11933,7 +11922,7 @@
       <c r="I271" s="16"/>
       <c r="J271" s="23"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="16">
         <v>565</v>
       </c>
@@ -11951,7 +11940,7 @@
       <c r="I272" s="16"/>
       <c r="J272" s="23"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="16">
         <v>566</v>
       </c>
@@ -11969,7 +11958,7 @@
       <c r="I273" s="16"/>
       <c r="J273" s="23"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="16">
         <v>567</v>
       </c>
@@ -11987,7 +11976,7 @@
       <c r="I274" s="16"/>
       <c r="J274" s="23"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="16">
         <v>568</v>
       </c>
@@ -12005,7 +11994,7 @@
       <c r="I275" s="16"/>
       <c r="J275" s="23"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="16">
         <v>569</v>
       </c>
@@ -12023,7 +12012,7 @@
       <c r="I276" s="16"/>
       <c r="J276" s="23"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="16">
         <v>570</v>
       </c>
@@ -12041,7 +12030,7 @@
       <c r="I277" s="16"/>
       <c r="J277" s="23"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="16">
         <v>571</v>
       </c>
@@ -12059,7 +12048,7 @@
       <c r="I278" s="16"/>
       <c r="J278" s="23"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="16">
         <v>572</v>
       </c>
@@ -12077,7 +12066,7 @@
       <c r="I279" s="16"/>
       <c r="J279" s="23"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="16">
         <v>573</v>
       </c>
@@ -12095,7 +12084,7 @@
       <c r="I280" s="16"/>
       <c r="J280" s="23"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="16">
         <v>574</v>
       </c>
@@ -12113,7 +12102,7 @@
       <c r="I281" s="16"/>
       <c r="J281" s="23"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="16">
         <v>575</v>
       </c>
@@ -12131,7 +12120,7 @@
       <c r="I282" s="16"/>
       <c r="J282" s="23"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="16">
         <v>576</v>
       </c>
@@ -12149,7 +12138,7 @@
       <c r="I283" s="16"/>
       <c r="J283" s="23"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="16">
         <v>577</v>
       </c>
@@ -12167,7 +12156,7 @@
       <c r="I284" s="16"/>
       <c r="J284" s="23"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="16">
         <v>578</v>
       </c>
@@ -12185,7 +12174,7 @@
       <c r="I285" s="16"/>
       <c r="J285" s="23"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="16">
         <v>579</v>
       </c>
@@ -12203,7 +12192,7 @@
       <c r="I286" s="16"/>
       <c r="J286" s="23"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="16">
         <v>580</v>
       </c>
@@ -12221,7 +12210,7 @@
       <c r="I287" s="16"/>
       <c r="J287" s="23"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="16">
         <v>581</v>
       </c>
@@ -12239,7 +12228,7 @@
       <c r="I288" s="16"/>
       <c r="J288" s="23"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="16">
         <v>582</v>
       </c>
@@ -12257,7 +12246,7 @@
       <c r="I289" s="16"/>
       <c r="J289" s="23"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="16">
         <v>583</v>
       </c>
@@ -12275,7 +12264,7 @@
       <c r="I290" s="16"/>
       <c r="J290" s="23"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="16">
         <v>584</v>
       </c>
@@ -12293,7 +12282,7 @@
       <c r="I291" s="16"/>
       <c r="J291" s="23"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="16">
         <v>585</v>
       </c>
@@ -12311,7 +12300,7 @@
       <c r="I292" s="16"/>
       <c r="J292" s="23"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="16">
         <v>586</v>
       </c>
@@ -12329,7 +12318,7 @@
       <c r="I293" s="16"/>
       <c r="J293" s="23"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="16">
         <v>587</v>
       </c>
@@ -12347,7 +12336,7 @@
       <c r="I294" s="16"/>
       <c r="J294" s="23"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="16">
         <v>588</v>
       </c>
@@ -12365,7 +12354,7 @@
       <c r="I295" s="16"/>
       <c r="J295" s="23"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="16">
         <v>589</v>
       </c>
@@ -12383,7 +12372,7 @@
       <c r="I296" s="16"/>
       <c r="J296" s="23"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="16">
         <v>590</v>
       </c>
@@ -12401,7 +12390,7 @@
       <c r="I297" s="16"/>
       <c r="J297" s="23"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="16">
         <v>591</v>
       </c>
@@ -12419,7 +12408,7 @@
       <c r="I298" s="16"/>
       <c r="J298" s="23"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="16">
         <v>592</v>
       </c>
@@ -12437,7 +12426,7 @@
       <c r="I299" s="16"/>
       <c r="J299" s="23"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="16">
         <v>593</v>
       </c>
@@ -12455,7 +12444,7 @@
       <c r="I300" s="16"/>
       <c r="J300" s="23"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="16">
         <v>594</v>
       </c>
@@ -12473,7 +12462,7 @@
       <c r="I301" s="16"/>
       <c r="J301" s="23"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="16">
         <v>595</v>
       </c>
@@ -12491,7 +12480,7 @@
       <c r="I302" s="16"/>
       <c r="J302" s="23"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="16">
         <v>596</v>
       </c>
@@ -12509,7 +12498,7 @@
       <c r="I303" s="16"/>
       <c r="J303" s="23"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="16">
         <v>597</v>
       </c>
@@ -12527,7 +12516,7 @@
       <c r="I304" s="16"/>
       <c r="J304" s="23"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="16">
         <v>598</v>
       </c>
@@ -12545,7 +12534,7 @@
       <c r="I305" s="16"/>
       <c r="J305" s="23"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="16">
         <v>599</v>
       </c>
@@ -12563,7 +12552,7 @@
       <c r="I306" s="16"/>
       <c r="J306" s="23"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="16"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25" t="s">
@@ -12577,7 +12566,7 @@
       <c r="I307" s="16"/>
       <c r="J307" s="23"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="16"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25" t="s">
@@ -12591,7 +12580,7 @@
       <c r="I308" s="16"/>
       <c r="J308" s="23"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="16"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25" t="s">
@@ -12605,7 +12594,7 @@
       <c r="I309" s="16"/>
       <c r="J309" s="23"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="16"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25" t="s">
@@ -12619,28 +12608,28 @@
       <c r="I310" s="16"/>
       <c r="J310" s="23"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="J318" s="6"/>
     </row>
   </sheetData>
@@ -12668,19 +12657,19 @@
       <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="17.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="35.375" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="16" customWidth="1"/>
-    <col min="9" max="10" width="6.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="17" customWidth="1"/>
+    <col min="7" max="8" width="10.88671875" style="16" customWidth="1"/>
+    <col min="9" max="10" width="6.33203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>427</v>
       </c>
@@ -12712,7 +12701,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -12736,7 +12725,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="12" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -12762,7 +12751,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="12" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -12788,7 +12777,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="12" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -12810,7 +12799,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="32.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -12836,7 +12825,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -12860,7 +12849,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -12876,7 +12865,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -12900,7 +12889,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -12924,7 +12913,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -12946,7 +12935,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -12970,7 +12959,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -12994,7 +12983,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -13010,7 +12999,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -13036,7 +13025,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -13062,7 +13051,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -13086,7 +13075,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32.4">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -13112,7 +13101,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -13138,7 +13127,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -13164,7 +13153,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -13190,7 +13179,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -13216,7 +13205,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -13242,7 +13231,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -13268,7 +13257,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -13294,7 +13283,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -13320,7 +13309,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -13346,7 +13335,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -13372,7 +13361,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -13398,7 +13387,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -13424,7 +13413,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -13450,7 +13439,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -13474,7 +13463,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -13500,7 +13489,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -13526,7 +13515,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -13550,7 +13539,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -13574,7 +13563,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -13600,7 +13589,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -13624,7 +13613,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -13650,7 +13639,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -13676,7 +13665,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -13702,7 +13691,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -13728,7 +13717,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -13754,7 +13743,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -13778,7 +13767,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -13802,7 +13791,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -13826,7 +13815,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -13850,7 +13839,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -13876,7 +13865,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -13900,7 +13889,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -13926,7 +13915,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -13952,7 +13941,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -13978,7 +13967,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -14004,7 +13993,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -14028,7 +14017,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -14054,7 +14043,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -14080,7 +14069,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -14106,7 +14095,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -14130,7 +14119,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -14154,7 +14143,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -14178,7 +14167,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -14202,7 +14191,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -14226,7 +14215,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -14252,7 +14241,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -14276,7 +14265,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -14302,7 +14291,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -14326,7 +14315,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -14350,7 +14339,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -14376,7 +14365,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -14402,7 +14391,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -14428,7 +14417,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -14454,7 +14443,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -14480,7 +14469,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -14504,7 +14493,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -14528,7 +14517,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -14552,7 +14541,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -14578,7 +14567,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -14602,7 +14591,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -14626,7 +14615,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -14650,7 +14639,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -14674,7 +14663,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -14698,7 +14687,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -14724,7 +14713,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -14748,7 +14737,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -14772,7 +14761,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -14796,7 +14785,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -14820,7 +14809,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -14844,7 +14833,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -14868,7 +14857,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -14892,7 +14881,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -14916,7 +14905,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -14940,7 +14929,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -14964,7 +14953,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -14990,7 +14979,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -15014,7 +15003,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -15038,7 +15027,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -15062,7 +15051,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -15088,7 +15077,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -15112,7 +15101,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -15138,7 +15127,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -15164,7 +15153,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -15190,7 +15179,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -15214,7 +15203,7 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -15238,7 +15227,7 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -15262,7 +15251,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -15286,7 +15275,7 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -15310,7 +15299,7 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -15336,7 +15325,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -15360,7 +15349,7 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -15386,7 +15375,7 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -15410,7 +15399,7 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -15434,7 +15423,7 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -15460,7 +15449,7 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -15476,7 +15465,7 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -15500,7 +15489,7 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -15524,7 +15513,7 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -15548,7 +15537,7 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -15572,7 +15561,7 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -15598,7 +15587,7 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -15622,7 +15611,7 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -15648,7 +15637,7 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -15674,7 +15663,7 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -15698,7 +15687,7 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -15724,7 +15713,7 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -15750,7 +15739,7 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -15774,7 +15763,7 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -15798,7 +15787,7 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -15822,7 +15811,7 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -15846,7 +15835,7 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -15872,7 +15861,7 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -15896,7 +15885,7 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -15922,7 +15911,7 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -15948,7 +15937,7 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -15974,7 +15963,7 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -15998,7 +15987,7 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -16024,7 +16013,7 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -16048,7 +16037,7 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -16072,7 +16061,7 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -16098,7 +16087,7 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -16124,7 +16113,7 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -16148,7 +16137,7 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -16172,7 +16161,7 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -16196,7 +16185,7 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -16220,7 +16209,7 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -16244,7 +16233,7 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -16268,7 +16257,7 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -16292,7 +16281,7 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -16316,7 +16305,7 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -16340,7 +16329,7 @@
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -16364,7 +16353,7 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -16388,7 +16377,7 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -16412,7 +16401,7 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -16436,7 +16425,7 @@
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -16460,7 +16449,7 @@
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -16484,7 +16473,7 @@
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -16508,7 +16497,7 @@
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -16532,7 +16521,7 @@
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -16556,7 +16545,7 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -16580,7 +16569,7 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -16604,7 +16593,7 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -16628,7 +16617,7 @@
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -16652,7 +16641,7 @@
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -16668,7 +16657,7 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -16692,7 +16681,7 @@
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -16716,7 +16705,7 @@
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -16740,7 +16729,7 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="8">
         <v>165</v>
       </c>
